--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b249064b9378fdb/ABDP/ReactJS/Menu-Panel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b249064b9378fdb/ABDP/BSI/Menu Panel/Menu-Panel-005/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{CB03CD79-2614-4788-AA26-0AA117EC9306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{303675BB-017B-43DF-973F-75BB612DF71E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{7AC1DEFD-BF0C-4523-AB11-B9F36788AEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFFDB75C-9DA3-4214-95CF-238B5C1DA197}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DE9CF59-88CA-478B-8C62-6621B51CB8F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E03726B-2C2B-40E6-842E-EFDBF15111A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,73 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>abount:config</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>privacy.file_unique_origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,11 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -93,21 +154,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>83857</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>84167</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>94333</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11">
+        <xdr:cNvPr id="6" name="Group 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670FAB0A-1581-62F3-94DA-45D85D9B7753}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F3C9A4-C544-C9D3-CE18-4A24112C65CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -115,10 +176,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190500" y="190500"/>
-          <a:ext cx="14942857" cy="7333333"/>
-          <a:chOff x="190500" y="190500"/>
-          <a:chExt cx="14942857" cy="7333333"/>
+          <a:off x="190500" y="762000"/>
+          <a:ext cx="12466667" cy="7333333"/>
+          <a:chOff x="190500" y="762000"/>
+          <a:chExt cx="12466667" cy="7333333"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -126,7 +187,7 @@
           <xdr:cNvPr id="2" name="Picture 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852DC8B7-4593-5BDD-69E2-56E2443F97AB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B146695-139E-4E28-3F07-9EE3EB9F369A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -142,8 +203,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="190500" y="190500"/>
-            <a:ext cx="14942857" cy="7333333"/>
+            <a:off x="190500" y="762000"/>
+            <a:ext cx="12466667" cy="7333333"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -157,212 +218,189 @@
           </a:effectLst>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Group 10">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21634B77-2433-1130-C322-94C7F5F26CF7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EA1AF5-9C37-4E44-9BF8-9F229B2BF933}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="3619500" y="4505324"/>
-            <a:ext cx="6029325" cy="1247775"/>
-            <a:chOff x="3619500" y="4505324"/>
-            <a:chExt cx="6029325" cy="1247775"/>
+            <a:off x="3350951" y="1276350"/>
+            <a:ext cx="870472" cy="247650"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="Rectangle 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2E4604-7BFD-4D7D-A909-C8D4ABB01612}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6486525" y="4962525"/>
-              <a:ext cx="3162300" cy="447675"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
             <a:solidFill>
-              <a:srgbClr val="FFFF99"/>
+              <a:srgbClr val="0000FF">
+                <a:alpha val="78000"/>
+              </a:srgbClr>
             </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="279400" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="78000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="72000" tIns="72000" rIns="72000" bIns="72000" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Sans Typewriter" panose="020B0509030504030204" pitchFamily="49" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Ketika diklik akan menuju/membuka URL.</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Lucida Sans Typewriter" panose="020B0509030504030204" pitchFamily="49" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9586E68F-4FF8-49AE-A55B-27A3AB436B48}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="5" idx="3"/>
-              <a:endCxn id="3" idx="1"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5572125" y="5129212"/>
-              <a:ext cx="914400" cy="57151"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="63500">
-              <a:solidFill>
-                <a:srgbClr val="0000CC">
-                  <a:alpha val="45000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:headEnd type="oval" w="sm" len="sm"/>
-              <a:tailEnd type="arrow" w="sm" len="lg"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="Rectangle 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E17267-F1FB-4A59-B010-8CB40443B4BD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3619500" y="4505324"/>
-              <a:ext cx="1952625" cy="1247775"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:srgbClr val="0000FF">
-                  <a:alpha val="78000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="67000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="67000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB18F285-BA2D-4341-9D16-93118CBAE67C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="515426" y="3562350"/>
+            <a:ext cx="1855223" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="0000FF">
+                <a:alpha val="78000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="67000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900214AE-C4C9-4668-9085-AD3617614ECD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6000873" y="3562350"/>
+            <a:ext cx="453278" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000">
+                <a:alpha val="78000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="67000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -685,8 +723,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69C24CC-94CE-4370-B23C-37A51CDCE988}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F661476F-3B94-4F8B-BBBC-DAB95C2C742D}">
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -694,7 +732,18 @@
   <cols>
     <col min="1" max="16384" width="2.85546875" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
